--- a/excelFiles/teams.xlsx
+++ b/excelFiles/teams.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\betfairData\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D669076-8CA0-45AA-81FC-3A2998E035A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBAD05F-C6A4-42D5-9331-4EA2CF27DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{91859887-920A-4993-BC46-5B28428EAD66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91859887-920A-4993-BC46-5B28428EAD66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Countries" sheetId="4" r:id="rId4"/>
+    <sheet name="Betfair names" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Countries" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$7:$J$162</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="339">
   <si>
     <t>Manchester United</t>
   </si>
@@ -2282,6 +2283,4415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D905052-053E-4253-B18F-A312FB88B3DF}">
+  <dimension ref="B3:J158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J158" sqref="J3:J158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT(B3:I3)</f>
+        <v>"Arsenal":"England",</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Aston Villa":"England",</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bournemouth":"England",</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Brentford":"England",</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Brighton":"England",</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" t="s">
+        <v>333</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Burnley":"England",</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Chelsea":"England",</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" t="s">
+        <v>333</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Crystal Palace":"England",</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Everton":"England",</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I12" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fulham":"England",</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Liverpool":"England",</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Luton":"England",</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" t="s">
+        <v>333</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Man City":"England",</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" t="s">
+        <v>333</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>"Man Utd":"England",</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Newcastle":"England",</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" t="s">
+        <v>333</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nottm Forest":"England",</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" t="s">
+        <v>331</v>
+      </c>
+      <c r="H19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" t="s">
+        <v>333</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sheff Utd":"England",</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" t="s">
+        <v>333</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Tottenham":"England",</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H21" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" t="s">
+        <v>333</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>"West Ham":"England",</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" t="s">
+        <v>333</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>"Wolves":"England",</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G25" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" t="s">
+        <v>333</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>"Birmingham":"England",</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" t="s">
+        <v>333</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>"Blackburn":"England",</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" t="s">
+        <v>333</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bristol City":"England",</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" t="s">
+        <v>333</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cardiff":"England",</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" t="s">
+        <v>331</v>
+      </c>
+      <c r="H29" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" t="s">
+        <v>333</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>"Coventry":"England",</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30" t="s">
+        <v>332</v>
+      </c>
+      <c r="G30" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" t="s">
+        <v>333</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>"Huddersfield":"England",</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" t="s">
+        <v>331</v>
+      </c>
+      <c r="H31" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" t="s">
+        <v>333</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hull":"England",</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ipswich":"England",</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" t="s">
+        <v>334</v>
+      </c>
+      <c r="F33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" t="s">
+        <v>331</v>
+      </c>
+      <c r="H33" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" t="s">
+        <v>333</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>"Leeds":"England",</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34" t="s">
+        <v>334</v>
+      </c>
+      <c r="F34" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>"Leicester":"England",</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+      <c r="H35" t="s">
+        <v>332</v>
+      </c>
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>"Middlesbrough":"England",</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>"Millwall":"England",</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" t="s">
+        <v>334</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>331</v>
+      </c>
+      <c r="H37" t="s">
+        <v>332</v>
+      </c>
+      <c r="I37" t="s">
+        <v>333</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>"Norwich":"England",</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>331</v>
+      </c>
+      <c r="H38" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>"Plymouth":"England",</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>331</v>
+      </c>
+      <c r="H39" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>"Preston":"England",</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>"QPR":"England",</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>331</v>
+      </c>
+      <c r="H41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rotherham":"England",</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>332</v>
+      </c>
+      <c r="E42" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" t="s">
+        <v>332</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sheff Wed":"England",</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" t="s">
+        <v>334</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H43" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>"Southampton":"England",</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>332</v>
+      </c>
+      <c r="E44" t="s">
+        <v>334</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>331</v>
+      </c>
+      <c r="H44" t="s">
+        <v>332</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>"Stoke":"England",</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" t="s">
+        <v>334</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>331</v>
+      </c>
+      <c r="H45" t="s">
+        <v>332</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>"Sunderland":"England",</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E46" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G46" t="s">
+        <v>331</v>
+      </c>
+      <c r="H46" t="s">
+        <v>332</v>
+      </c>
+      <c r="I46" t="s">
+        <v>333</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>"Swansea":"England",</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" t="s">
+        <v>334</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" t="s">
+        <v>332</v>
+      </c>
+      <c r="I47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>"Watford":"England",</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>331</v>
+      </c>
+      <c r="H48" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>"West Brom":"England",</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>331</v>
+      </c>
+      <c r="H51" t="s">
+        <v>332</v>
+      </c>
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>"Barnsley":"England",</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+      <c r="H52" t="s">
+        <v>332</v>
+      </c>
+      <c r="I52" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>"Blackpool":"England",</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" t="s">
+        <v>334</v>
+      </c>
+      <c r="F53" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" t="s">
+        <v>331</v>
+      </c>
+      <c r="H53" t="s">
+        <v>332</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bolton":"England",</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" t="s">
+        <v>332</v>
+      </c>
+      <c r="G54" t="s">
+        <v>331</v>
+      </c>
+      <c r="H54" t="s">
+        <v>332</v>
+      </c>
+      <c r="I54" t="s">
+        <v>333</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bristol Rovers":"England",</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" t="s">
+        <v>331</v>
+      </c>
+      <c r="H55" t="s">
+        <v>332</v>
+      </c>
+      <c r="I55" t="s">
+        <v>333</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>"Burton Albion":"England",</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E56" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56" t="s">
+        <v>332</v>
+      </c>
+      <c r="G56" t="s">
+        <v>331</v>
+      </c>
+      <c r="H56" t="s">
+        <v>332</v>
+      </c>
+      <c r="I56" t="s">
+        <v>333</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cambridge Utd":"England",</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>332</v>
+      </c>
+      <c r="E57" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" t="s">
+        <v>332</v>
+      </c>
+      <c r="G57" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" t="s">
+        <v>332</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>"Carlisle":"England",</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>332</v>
+      </c>
+      <c r="E58" t="s">
+        <v>334</v>
+      </c>
+      <c r="F58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" t="s">
+        <v>331</v>
+      </c>
+      <c r="H58" t="s">
+        <v>332</v>
+      </c>
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>"Charlton":"England",</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>332</v>
+      </c>
+      <c r="E59" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" t="s">
+        <v>332</v>
+      </c>
+      <c r="I59" t="s">
+        <v>333</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cheltenham":"England",</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>331</v>
+      </c>
+      <c r="H60" t="s">
+        <v>332</v>
+      </c>
+      <c r="I60" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>"Derby":"England",</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>332</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>332</v>
+      </c>
+      <c r="E61" t="s">
+        <v>334</v>
+      </c>
+      <c r="F61" t="s">
+        <v>332</v>
+      </c>
+      <c r="G61" t="s">
+        <v>331</v>
+      </c>
+      <c r="H61" t="s">
+        <v>332</v>
+      </c>
+      <c r="I61" t="s">
+        <v>333</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>"Exeter":"England",</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" t="s">
+        <v>334</v>
+      </c>
+      <c r="F62" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" t="s">
+        <v>331</v>
+      </c>
+      <c r="H62" t="s">
+        <v>332</v>
+      </c>
+      <c r="I62" t="s">
+        <v>333</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fleetwood Town":"England",</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>332</v>
+      </c>
+      <c r="E63" t="s">
+        <v>334</v>
+      </c>
+      <c r="F63" t="s">
+        <v>332</v>
+      </c>
+      <c r="G63" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" t="s">
+        <v>332</v>
+      </c>
+      <c r="I63" t="s">
+        <v>333</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>"Leyton Orient":"England",</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" t="s">
+        <v>334</v>
+      </c>
+      <c r="F64" t="s">
+        <v>332</v>
+      </c>
+      <c r="G64" t="s">
+        <v>331</v>
+      </c>
+      <c r="H64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I64" t="s">
+        <v>333</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lincoln":"England",</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65" t="s">
+        <v>334</v>
+      </c>
+      <c r="F65" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" t="s">
+        <v>331</v>
+      </c>
+      <c r="H65" t="s">
+        <v>332</v>
+      </c>
+      <c r="I65" t="s">
+        <v>333</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>"Northampton":"England",</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" t="s">
+        <v>334</v>
+      </c>
+      <c r="F66" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" t="s">
+        <v>331</v>
+      </c>
+      <c r="H66" t="s">
+        <v>332</v>
+      </c>
+      <c r="I66" t="s">
+        <v>333</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>"Oxford Utd":"England",</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" t="s">
+        <v>332</v>
+      </c>
+      <c r="I67" t="s">
+        <v>333</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="1">_xlfn.CONCAT(B67:I67)</f>
+        <v>"Peterborough":"England",</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" t="s">
+        <v>334</v>
+      </c>
+      <c r="F68" t="s">
+        <v>332</v>
+      </c>
+      <c r="G68" t="s">
+        <v>331</v>
+      </c>
+      <c r="H68" t="s">
+        <v>332</v>
+      </c>
+      <c r="I68" t="s">
+        <v>333</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>"Port Vale":"England",</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>332</v>
+      </c>
+      <c r="E69" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" t="s">
+        <v>332</v>
+      </c>
+      <c r="G69" t="s">
+        <v>331</v>
+      </c>
+      <c r="H69" t="s">
+        <v>332</v>
+      </c>
+      <c r="I69" t="s">
+        <v>333</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>"Portsmouth":"England",</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>332</v>
+      </c>
+      <c r="E70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
+        <v>332</v>
+      </c>
+      <c r="I70" t="s">
+        <v>333</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>"Reading":"England",</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>332</v>
+      </c>
+      <c r="E71" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" t="s">
+        <v>331</v>
+      </c>
+      <c r="H71" t="s">
+        <v>332</v>
+      </c>
+      <c r="I71" t="s">
+        <v>333</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>"Shrewsbury":"England",</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" t="s">
+        <v>332</v>
+      </c>
+      <c r="G72" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" t="s">
+        <v>333</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>"Stevenage":"England",</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="s">
+        <v>332</v>
+      </c>
+      <c r="E73" t="s">
+        <v>334</v>
+      </c>
+      <c r="F73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" t="s">
+        <v>331</v>
+      </c>
+      <c r="H73" t="s">
+        <v>332</v>
+      </c>
+      <c r="I73" t="s">
+        <v>333</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>"Wigan":"England",</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
+        <v>334</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+      <c r="G74" t="s">
+        <v>331</v>
+      </c>
+      <c r="H74" t="s">
+        <v>332</v>
+      </c>
+      <c r="I74" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>"Wycombe":"England",</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>332</v>
+      </c>
+      <c r="E77" t="s">
+        <v>334</v>
+      </c>
+      <c r="F77" t="s">
+        <v>332</v>
+      </c>
+      <c r="G77" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" t="s">
+        <v>333</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>"Alaves":"Spain",</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>332</v>
+      </c>
+      <c r="E78" t="s">
+        <v>334</v>
+      </c>
+      <c r="F78" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" t="s">
+        <v>332</v>
+      </c>
+      <c r="I78" t="s">
+        <v>333</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>"Almeria":"Spain",</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" t="s">
+        <v>154</v>
+      </c>
+      <c r="D79" t="s">
+        <v>332</v>
+      </c>
+      <c r="E79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F79" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" t="s">
+        <v>335</v>
+      </c>
+      <c r="H79" t="s">
+        <v>332</v>
+      </c>
+      <c r="I79" t="s">
+        <v>333</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>"Athletic Bilbao":"Spain",</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" t="s">
+        <v>332</v>
+      </c>
+      <c r="E80" t="s">
+        <v>334</v>
+      </c>
+      <c r="F80" t="s">
+        <v>332</v>
+      </c>
+      <c r="G80" t="s">
+        <v>335</v>
+      </c>
+      <c r="H80" t="s">
+        <v>332</v>
+      </c>
+      <c r="I80" t="s">
+        <v>333</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>"Atletico Madrid":"Spain",</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>332</v>
+      </c>
+      <c r="E81" t="s">
+        <v>334</v>
+      </c>
+      <c r="F81" t="s">
+        <v>332</v>
+      </c>
+      <c r="G81" t="s">
+        <v>335</v>
+      </c>
+      <c r="H81" t="s">
+        <v>332</v>
+      </c>
+      <c r="I81" t="s">
+        <v>333</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>"Barcelona":"Spain",</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>332</v>
+      </c>
+      <c r="E82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F82" t="s">
+        <v>332</v>
+      </c>
+      <c r="G82" t="s">
+        <v>335</v>
+      </c>
+      <c r="H82" t="s">
+        <v>332</v>
+      </c>
+      <c r="I82" t="s">
+        <v>333</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>"Cadiz":"Spain",</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" t="s">
+        <v>334</v>
+      </c>
+      <c r="F83" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" t="s">
+        <v>335</v>
+      </c>
+      <c r="H83" t="s">
+        <v>332</v>
+      </c>
+      <c r="I83" t="s">
+        <v>333</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>"Celta Vigo":"Spain",</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F84" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84" t="s">
+        <v>332</v>
+      </c>
+      <c r="I84" t="s">
+        <v>333</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>"Getafe":"Spain",</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>332</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" t="s">
+        <v>332</v>
+      </c>
+      <c r="E85" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" t="s">
+        <v>332</v>
+      </c>
+      <c r="G85" t="s">
+        <v>335</v>
+      </c>
+      <c r="H85" t="s">
+        <v>332</v>
+      </c>
+      <c r="I85" t="s">
+        <v>333</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>"Girona":"Spain",</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" t="s">
+        <v>334</v>
+      </c>
+      <c r="F86" t="s">
+        <v>332</v>
+      </c>
+      <c r="G86" t="s">
+        <v>335</v>
+      </c>
+      <c r="H86" t="s">
+        <v>332</v>
+      </c>
+      <c r="I86" t="s">
+        <v>333</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>"Granada":"Spain",</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" t="s">
+        <v>332</v>
+      </c>
+      <c r="E87" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" t="s">
+        <v>332</v>
+      </c>
+      <c r="G87" t="s">
+        <v>335</v>
+      </c>
+      <c r="H87" t="s">
+        <v>332</v>
+      </c>
+      <c r="I87" t="s">
+        <v>333</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>"Las Palmas":"Spain",</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>332</v>
+      </c>
+      <c r="E88" t="s">
+        <v>334</v>
+      </c>
+      <c r="F88" t="s">
+        <v>332</v>
+      </c>
+      <c r="G88" t="s">
+        <v>335</v>
+      </c>
+      <c r="H88" t="s">
+        <v>332</v>
+      </c>
+      <c r="I88" t="s">
+        <v>333</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mallorca":"Spain",</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>332</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" t="s">
+        <v>334</v>
+      </c>
+      <c r="F89" t="s">
+        <v>332</v>
+      </c>
+      <c r="G89" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" t="s">
+        <v>332</v>
+      </c>
+      <c r="I89" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>"Osasuna":"Spain",</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>332</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90" t="s">
+        <v>334</v>
+      </c>
+      <c r="F90" t="s">
+        <v>332</v>
+      </c>
+      <c r="G90" t="s">
+        <v>335</v>
+      </c>
+      <c r="H90" t="s">
+        <v>332</v>
+      </c>
+      <c r="I90" t="s">
+        <v>333</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>"Rayo Vallecano":"Spain",</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C91" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" t="s">
+        <v>332</v>
+      </c>
+      <c r="E91" t="s">
+        <v>334</v>
+      </c>
+      <c r="F91" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" t="s">
+        <v>335</v>
+      </c>
+      <c r="H91" t="s">
+        <v>332</v>
+      </c>
+      <c r="I91" t="s">
+        <v>333</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>"Betis":"Spain",</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>332</v>
+      </c>
+      <c r="E92" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" t="s">
+        <v>332</v>
+      </c>
+      <c r="G92" t="s">
+        <v>335</v>
+      </c>
+      <c r="H92" t="s">
+        <v>332</v>
+      </c>
+      <c r="I92" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>"Real Madrid":"Spain",</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" t="s">
+        <v>332</v>
+      </c>
+      <c r="G93" t="s">
+        <v>335</v>
+      </c>
+      <c r="H93" t="s">
+        <v>332</v>
+      </c>
+      <c r="I93" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>"Real Sociedad":"Spain",</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>332</v>
+      </c>
+      <c r="E94" t="s">
+        <v>334</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+      <c r="G94" t="s">
+        <v>335</v>
+      </c>
+      <c r="H94" t="s">
+        <v>332</v>
+      </c>
+      <c r="I94" t="s">
+        <v>333</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sevilla":"Spain",</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" t="s">
+        <v>334</v>
+      </c>
+      <c r="F95" t="s">
+        <v>332</v>
+      </c>
+      <c r="G95" t="s">
+        <v>335</v>
+      </c>
+      <c r="H95" t="s">
+        <v>332</v>
+      </c>
+      <c r="I95" t="s">
+        <v>333</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>"Valencia":"Spain",</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" t="s">
+        <v>334</v>
+      </c>
+      <c r="F96" t="s">
+        <v>332</v>
+      </c>
+      <c r="G96" t="s">
+        <v>335</v>
+      </c>
+      <c r="H96" t="s">
+        <v>332</v>
+      </c>
+      <c r="I96" t="s">
+        <v>333</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>"Villarreal":"Spain",</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99" t="s">
+        <v>332</v>
+      </c>
+      <c r="G99" t="s">
+        <v>336</v>
+      </c>
+      <c r="H99" t="s">
+        <v>332</v>
+      </c>
+      <c r="I99" t="s">
+        <v>333</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>"AC Milan":"Italy",</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" t="s">
+        <v>334</v>
+      </c>
+      <c r="F100" t="s">
+        <v>332</v>
+      </c>
+      <c r="G100" t="s">
+        <v>336</v>
+      </c>
+      <c r="H100" t="s">
+        <v>332</v>
+      </c>
+      <c r="I100" t="s">
+        <v>333</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>"Roma":"Italy",</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>332</v>
+      </c>
+      <c r="C101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" t="s">
+        <v>332</v>
+      </c>
+      <c r="G101" t="s">
+        <v>336</v>
+      </c>
+      <c r="H101" t="s">
+        <v>332</v>
+      </c>
+      <c r="I101" t="s">
+        <v>333</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>"Atalanta":"Italy",</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" t="s">
+        <v>332</v>
+      </c>
+      <c r="E102" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" t="s">
+        <v>332</v>
+      </c>
+      <c r="G102" t="s">
+        <v>336</v>
+      </c>
+      <c r="H102" t="s">
+        <v>332</v>
+      </c>
+      <c r="I102" t="s">
+        <v>333</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>"Bologna":"Italy",</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
+        <v>332</v>
+      </c>
+      <c r="E103" t="s">
+        <v>334</v>
+      </c>
+      <c r="F103" t="s">
+        <v>332</v>
+      </c>
+      <c r="G103" t="s">
+        <v>336</v>
+      </c>
+      <c r="H103" t="s">
+        <v>332</v>
+      </c>
+      <c r="I103" t="s">
+        <v>333</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>"Cagliari":"Italy",</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>332</v>
+      </c>
+      <c r="E104" t="s">
+        <v>334</v>
+      </c>
+      <c r="F104" t="s">
+        <v>332</v>
+      </c>
+      <c r="G104" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" t="s">
+        <v>332</v>
+      </c>
+      <c r="I104" t="s">
+        <v>333</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>"Empoli":"Italy",</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" t="s">
+        <v>334</v>
+      </c>
+      <c r="F105" t="s">
+        <v>332</v>
+      </c>
+      <c r="G105" t="s">
+        <v>336</v>
+      </c>
+      <c r="H105" t="s">
+        <v>332</v>
+      </c>
+      <c r="I105" t="s">
+        <v>333</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>"Fiorentina":"Italy",</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106" t="s">
+        <v>332</v>
+      </c>
+      <c r="E106" t="s">
+        <v>334</v>
+      </c>
+      <c r="F106" t="s">
+        <v>332</v>
+      </c>
+      <c r="G106" t="s">
+        <v>336</v>
+      </c>
+      <c r="H106" t="s">
+        <v>332</v>
+      </c>
+      <c r="I106" t="s">
+        <v>333</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>"Frosinone":"Italy",</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" t="s">
+        <v>332</v>
+      </c>
+      <c r="E107" t="s">
+        <v>334</v>
+      </c>
+      <c r="F107" t="s">
+        <v>332</v>
+      </c>
+      <c r="G107" t="s">
+        <v>336</v>
+      </c>
+      <c r="H107" t="s">
+        <v>332</v>
+      </c>
+      <c r="I107" t="s">
+        <v>333</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>"Genoa":"Italy",</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" t="s">
+        <v>332</v>
+      </c>
+      <c r="G108" t="s">
+        <v>336</v>
+      </c>
+      <c r="H108" t="s">
+        <v>332</v>
+      </c>
+      <c r="I108" t="s">
+        <v>333</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>"Inter":"Italy",</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>332</v>
+      </c>
+      <c r="E109" t="s">
+        <v>334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>332</v>
+      </c>
+      <c r="G109" t="s">
+        <v>336</v>
+      </c>
+      <c r="H109" t="s">
+        <v>332</v>
+      </c>
+      <c r="I109" t="s">
+        <v>333</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>"Juventus":"Italy",</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F110" t="s">
+        <v>332</v>
+      </c>
+      <c r="G110" t="s">
+        <v>336</v>
+      </c>
+      <c r="H110" t="s">
+        <v>332</v>
+      </c>
+      <c r="I110" t="s">
+        <v>333</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>"Lazio":"Italy",</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>332</v>
+      </c>
+      <c r="E111" t="s">
+        <v>334</v>
+      </c>
+      <c r="F111" t="s">
+        <v>332</v>
+      </c>
+      <c r="G111" t="s">
+        <v>336</v>
+      </c>
+      <c r="H111" t="s">
+        <v>332</v>
+      </c>
+      <c r="I111" t="s">
+        <v>333</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>"Lecce":"Italy",</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" t="s">
+        <v>334</v>
+      </c>
+      <c r="F112" t="s">
+        <v>332</v>
+      </c>
+      <c r="G112" t="s">
+        <v>336</v>
+      </c>
+      <c r="H112" t="s">
+        <v>332</v>
+      </c>
+      <c r="I112" t="s">
+        <v>333</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>"AC Monza":"Italy",</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>92</v>
+      </c>
+      <c r="D113" t="s">
+        <v>332</v>
+      </c>
+      <c r="E113" t="s">
+        <v>334</v>
+      </c>
+      <c r="F113" t="s">
+        <v>332</v>
+      </c>
+      <c r="G113" t="s">
+        <v>336</v>
+      </c>
+      <c r="H113" t="s">
+        <v>332</v>
+      </c>
+      <c r="I113" t="s">
+        <v>333</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>"Napoli":"Italy",</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>332</v>
+      </c>
+      <c r="E114" t="s">
+        <v>334</v>
+      </c>
+      <c r="F114" t="s">
+        <v>332</v>
+      </c>
+      <c r="G114" t="s">
+        <v>336</v>
+      </c>
+      <c r="H114" t="s">
+        <v>332</v>
+      </c>
+      <c r="I114" t="s">
+        <v>333</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>"Salernitana":"Italy",</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>332</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" t="s">
+        <v>332</v>
+      </c>
+      <c r="E115" t="s">
+        <v>334</v>
+      </c>
+      <c r="F115" t="s">
+        <v>332</v>
+      </c>
+      <c r="G115" t="s">
+        <v>336</v>
+      </c>
+      <c r="H115" t="s">
+        <v>332</v>
+      </c>
+      <c r="I115" t="s">
+        <v>333</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>"Sassuolo":"Italy",</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" t="s">
+        <v>332</v>
+      </c>
+      <c r="E116" t="s">
+        <v>334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>332</v>
+      </c>
+      <c r="G116" t="s">
+        <v>336</v>
+      </c>
+      <c r="H116" t="s">
+        <v>332</v>
+      </c>
+      <c r="I116" t="s">
+        <v>333</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>"Torino":"Italy",</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>332</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>332</v>
+      </c>
+      <c r="E117" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" t="s">
+        <v>332</v>
+      </c>
+      <c r="G117" t="s">
+        <v>336</v>
+      </c>
+      <c r="H117" t="s">
+        <v>332</v>
+      </c>
+      <c r="I117" t="s">
+        <v>333</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>"Udinese":"Italy",</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118" t="s">
+        <v>334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>332</v>
+      </c>
+      <c r="G118" t="s">
+        <v>336</v>
+      </c>
+      <c r="H118" t="s">
+        <v>332</v>
+      </c>
+      <c r="I118" t="s">
+        <v>333</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>"Verona":"Italy",</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" t="s">
+        <v>332</v>
+      </c>
+      <c r="E121" t="s">
+        <v>334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>332</v>
+      </c>
+      <c r="G121" t="s">
+        <v>337</v>
+      </c>
+      <c r="H121" t="s">
+        <v>332</v>
+      </c>
+      <c r="I121" t="s">
+        <v>333</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>"FC Koln":"Germany",</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>332</v>
+      </c>
+      <c r="C122" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" t="s">
+        <v>332</v>
+      </c>
+      <c r="E122" t="s">
+        <v>334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>332</v>
+      </c>
+      <c r="G122" t="s">
+        <v>337</v>
+      </c>
+      <c r="H122" t="s">
+        <v>332</v>
+      </c>
+      <c r="I122" t="s">
+        <v>333</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>"Hoffenheim":"Germany",</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" t="s">
+        <v>332</v>
+      </c>
+      <c r="E123" t="s">
+        <v>334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>332</v>
+      </c>
+      <c r="G123" t="s">
+        <v>337</v>
+      </c>
+      <c r="H123" t="s">
+        <v>332</v>
+      </c>
+      <c r="I123" t="s">
+        <v>333</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>"Leverkusen":"Germany",</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" t="s">
+        <v>332</v>
+      </c>
+      <c r="E124" t="s">
+        <v>334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>332</v>
+      </c>
+      <c r="G124" t="s">
+        <v>337</v>
+      </c>
+      <c r="H124" t="s">
+        <v>332</v>
+      </c>
+      <c r="I124" t="s">
+        <v>333</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>"Bayern Munich":"Germany",</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" t="s">
+        <v>334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>332</v>
+      </c>
+      <c r="G125" t="s">
+        <v>337</v>
+      </c>
+      <c r="H125" t="s">
+        <v>332</v>
+      </c>
+      <c r="I125" t="s">
+        <v>333</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="1"/>
+        <v>"Dortmund":"Germany",</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" t="s">
+        <v>334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>332</v>
+      </c>
+      <c r="G126" t="s">
+        <v>337</v>
+      </c>
+      <c r="H126" t="s">
+        <v>332</v>
+      </c>
+      <c r="I126" t="s">
+        <v>333</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mgladbach":"Germany",</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>332</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" t="s">
+        <v>332</v>
+      </c>
+      <c r="E127" t="s">
+        <v>334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>332</v>
+      </c>
+      <c r="G127" t="s">
+        <v>337</v>
+      </c>
+      <c r="H127" t="s">
+        <v>332</v>
+      </c>
+      <c r="I127" t="s">
+        <v>333</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="1"/>
+        <v>"Eintracht Frankfurt":"Germany",</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" t="s">
+        <v>332</v>
+      </c>
+      <c r="E128" t="s">
+        <v>334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G128" t="s">
+        <v>337</v>
+      </c>
+      <c r="H128" t="s">
+        <v>332</v>
+      </c>
+      <c r="I128" t="s">
+        <v>333</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="1"/>
+        <v>"Augsburg":"Germany",</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>332</v>
+      </c>
+      <c r="C129" t="s">
+        <v>121</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+      <c r="E129" t="s">
+        <v>334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>332</v>
+      </c>
+      <c r="G129" t="s">
+        <v>337</v>
+      </c>
+      <c r="H129" t="s">
+        <v>332</v>
+      </c>
+      <c r="I129" t="s">
+        <v>333</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="1"/>
+        <v>"FC Heidenheim":"Germany",</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>332</v>
+      </c>
+      <c r="C130" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" t="s">
+        <v>332</v>
+      </c>
+      <c r="E130" t="s">
+        <v>334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>332</v>
+      </c>
+      <c r="G130" t="s">
+        <v>337</v>
+      </c>
+      <c r="H130" t="s">
+        <v>332</v>
+      </c>
+      <c r="I130" t="s">
+        <v>333</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mainz":"Germany",</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" t="s">
+        <v>332</v>
+      </c>
+      <c r="E131" t="s">
+        <v>334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>332</v>
+      </c>
+      <c r="G131" t="s">
+        <v>337</v>
+      </c>
+      <c r="H131" t="s">
+        <v>332</v>
+      </c>
+      <c r="I131" t="s">
+        <v>333</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J157" si="2">_xlfn.CONCAT(B131:I131)</f>
+        <v>"RB Leipzig":"Germany",</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" t="s">
+        <v>332</v>
+      </c>
+      <c r="E132" t="s">
+        <v>334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>332</v>
+      </c>
+      <c r="G132" t="s">
+        <v>337</v>
+      </c>
+      <c r="H132" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" t="s">
+        <v>333</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>"Freiburg":"Germany",</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>332</v>
+      </c>
+      <c r="C133" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" t="s">
+        <v>334</v>
+      </c>
+      <c r="F133" t="s">
+        <v>332</v>
+      </c>
+      <c r="G133" t="s">
+        <v>337</v>
+      </c>
+      <c r="H133" t="s">
+        <v>332</v>
+      </c>
+      <c r="I133" t="s">
+        <v>333</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>"SV Darmstadt":"Germany",</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>332</v>
+      </c>
+      <c r="C134" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" t="s">
+        <v>332</v>
+      </c>
+      <c r="E134" t="s">
+        <v>334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>332</v>
+      </c>
+      <c r="G134" t="s">
+        <v>337</v>
+      </c>
+      <c r="H134" t="s">
+        <v>332</v>
+      </c>
+      <c r="I134" t="s">
+        <v>333</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>"Union Berlin":"Germany",</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>332</v>
+      </c>
+      <c r="C135" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+      <c r="E135" t="s">
+        <v>334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>332</v>
+      </c>
+      <c r="G135" t="s">
+        <v>337</v>
+      </c>
+      <c r="H135" t="s">
+        <v>332</v>
+      </c>
+      <c r="I135" t="s">
+        <v>333</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>"Stuttgart":"Germany",</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" t="s">
+        <v>332</v>
+      </c>
+      <c r="E136" t="s">
+        <v>334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>332</v>
+      </c>
+      <c r="G136" t="s">
+        <v>337</v>
+      </c>
+      <c r="H136" t="s">
+        <v>332</v>
+      </c>
+      <c r="I136" t="s">
+        <v>333</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="2"/>
+        <v>"Bochum":"Germany",</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>332</v>
+      </c>
+      <c r="C137" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E137" t="s">
+        <v>334</v>
+      </c>
+      <c r="F137" t="s">
+        <v>332</v>
+      </c>
+      <c r="G137" t="s">
+        <v>337</v>
+      </c>
+      <c r="H137" t="s">
+        <v>332</v>
+      </c>
+      <c r="I137" t="s">
+        <v>333</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="2"/>
+        <v>"Wolfsburg":"Germany",</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" t="s">
+        <v>332</v>
+      </c>
+      <c r="E138" t="s">
+        <v>334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>332</v>
+      </c>
+      <c r="G138" t="s">
+        <v>337</v>
+      </c>
+      <c r="H138" t="s">
+        <v>332</v>
+      </c>
+      <c r="I138" t="s">
+        <v>333</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" si="2"/>
+        <v>"Bremen":"Germany",</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>332</v>
+      </c>
+      <c r="C141" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" t="s">
+        <v>332</v>
+      </c>
+      <c r="E141" t="s">
+        <v>334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>332</v>
+      </c>
+      <c r="G141" t="s">
+        <v>338</v>
+      </c>
+      <c r="H141" t="s">
+        <v>332</v>
+      </c>
+      <c r="I141" t="s">
+        <v>333</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="2"/>
+        <v>"Clermont":"France",</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>332</v>
+      </c>
+      <c r="G142" t="s">
+        <v>338</v>
+      </c>
+      <c r="H142" t="s">
+        <v>332</v>
+      </c>
+      <c r="I142" t="s">
+        <v>333</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="2"/>
+        <v>"Havre":"France",</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" t="s">
+        <v>332</v>
+      </c>
+      <c r="E143" t="s">
+        <v>334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>332</v>
+      </c>
+      <c r="G143" t="s">
+        <v>338</v>
+      </c>
+      <c r="H143" t="s">
+        <v>332</v>
+      </c>
+      <c r="I143" t="s">
+        <v>333</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="2"/>
+        <v>"Lens":"France",</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" t="s">
+        <v>332</v>
+      </c>
+      <c r="E144" t="s">
+        <v>334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>332</v>
+      </c>
+      <c r="G144" t="s">
+        <v>338</v>
+      </c>
+      <c r="H144" t="s">
+        <v>332</v>
+      </c>
+      <c r="I144" t="s">
+        <v>333</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="2"/>
+        <v>"Lille":"France",</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>332</v>
+      </c>
+      <c r="C145" t="s">
+        <v>136</v>
+      </c>
+      <c r="D145" t="s">
+        <v>332</v>
+      </c>
+      <c r="E145" t="s">
+        <v>334</v>
+      </c>
+      <c r="F145" t="s">
+        <v>332</v>
+      </c>
+      <c r="G145" t="s">
+        <v>338</v>
+      </c>
+      <c r="H145" t="s">
+        <v>332</v>
+      </c>
+      <c r="I145" t="s">
+        <v>333</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="2"/>
+        <v>"Lorient":"France",</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" t="s">
+        <v>125</v>
+      </c>
+      <c r="D146" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146" t="s">
+        <v>334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>332</v>
+      </c>
+      <c r="G146" t="s">
+        <v>338</v>
+      </c>
+      <c r="H146" t="s">
+        <v>332</v>
+      </c>
+      <c r="I146" t="s">
+        <v>333</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>"Lyon":"France",</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" t="s">
+        <v>126</v>
+      </c>
+      <c r="D147" t="s">
+        <v>332</v>
+      </c>
+      <c r="E147" t="s">
+        <v>334</v>
+      </c>
+      <c r="F147" t="s">
+        <v>332</v>
+      </c>
+      <c r="G147" t="s">
+        <v>338</v>
+      </c>
+      <c r="H147" t="s">
+        <v>332</v>
+      </c>
+      <c r="I147" t="s">
+        <v>333</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="2"/>
+        <v>"Marseille":"France",</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148" t="s">
+        <v>332</v>
+      </c>
+      <c r="E148" t="s">
+        <v>334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>332</v>
+      </c>
+      <c r="G148" t="s">
+        <v>338</v>
+      </c>
+      <c r="H148" t="s">
+        <v>332</v>
+      </c>
+      <c r="I148" t="s">
+        <v>333</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="2"/>
+        <v>"Metz":"France",</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>332</v>
+      </c>
+      <c r="E149" t="s">
+        <v>334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>332</v>
+      </c>
+      <c r="G149" t="s">
+        <v>338</v>
+      </c>
+      <c r="H149" t="s">
+        <v>332</v>
+      </c>
+      <c r="I149" t="s">
+        <v>333</v>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="2"/>
+        <v>"Monaco":"France",</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>332</v>
+      </c>
+      <c r="C150" t="s">
+        <v>127</v>
+      </c>
+      <c r="D150" t="s">
+        <v>332</v>
+      </c>
+      <c r="E150" t="s">
+        <v>334</v>
+      </c>
+      <c r="F150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" t="s">
+        <v>338</v>
+      </c>
+      <c r="H150" t="s">
+        <v>332</v>
+      </c>
+      <c r="I150" t="s">
+        <v>333</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="2"/>
+        <v>"Montpellier":"France",</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>332</v>
+      </c>
+      <c r="C151" t="s">
+        <v>128</v>
+      </c>
+      <c r="D151" t="s">
+        <v>332</v>
+      </c>
+      <c r="E151" t="s">
+        <v>334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>332</v>
+      </c>
+      <c r="G151" t="s">
+        <v>338</v>
+      </c>
+      <c r="H151" t="s">
+        <v>332</v>
+      </c>
+      <c r="I151" t="s">
+        <v>333</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nantes":"France",</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>129</v>
+      </c>
+      <c r="D152" t="s">
+        <v>332</v>
+      </c>
+      <c r="E152" t="s">
+        <v>334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>332</v>
+      </c>
+      <c r="G152" t="s">
+        <v>338</v>
+      </c>
+      <c r="H152" t="s">
+        <v>332</v>
+      </c>
+      <c r="I152" t="s">
+        <v>333</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="2"/>
+        <v>"Nice":"France",</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>332</v>
+      </c>
+      <c r="C153" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" t="s">
+        <v>334</v>
+      </c>
+      <c r="F153" t="s">
+        <v>332</v>
+      </c>
+      <c r="G153" t="s">
+        <v>338</v>
+      </c>
+      <c r="H153" t="s">
+        <v>332</v>
+      </c>
+      <c r="I153" t="s">
+        <v>333</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="2"/>
+        <v>"Paris St-G":"France",</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" t="s">
+        <v>332</v>
+      </c>
+      <c r="E154" t="s">
+        <v>334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>332</v>
+      </c>
+      <c r="G154" t="s">
+        <v>338</v>
+      </c>
+      <c r="H154" t="s">
+        <v>332</v>
+      </c>
+      <c r="I154" t="s">
+        <v>333</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="2"/>
+        <v>"Reims":"France",</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>332</v>
+      </c>
+      <c r="C155" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" t="s">
+        <v>332</v>
+      </c>
+      <c r="E155" t="s">
+        <v>334</v>
+      </c>
+      <c r="F155" t="s">
+        <v>332</v>
+      </c>
+      <c r="G155" t="s">
+        <v>338</v>
+      </c>
+      <c r="H155" t="s">
+        <v>332</v>
+      </c>
+      <c r="I155" t="s">
+        <v>333</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="2"/>
+        <v>"Rennes":"France",</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>332</v>
+      </c>
+      <c r="C156" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" t="s">
+        <v>332</v>
+      </c>
+      <c r="E156" t="s">
+        <v>334</v>
+      </c>
+      <c r="F156" t="s">
+        <v>332</v>
+      </c>
+      <c r="G156" t="s">
+        <v>338</v>
+      </c>
+      <c r="H156" t="s">
+        <v>332</v>
+      </c>
+      <c r="I156" t="s">
+        <v>333</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="2"/>
+        <v>"Brest":"France",</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" t="s">
+        <v>134</v>
+      </c>
+      <c r="D157" t="s">
+        <v>332</v>
+      </c>
+      <c r="E157" t="s">
+        <v>334</v>
+      </c>
+      <c r="F157" t="s">
+        <v>332</v>
+      </c>
+      <c r="G157" t="s">
+        <v>338</v>
+      </c>
+      <c r="H157" t="s">
+        <v>332</v>
+      </c>
+      <c r="I157" t="s">
+        <v>333</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="2"/>
+        <v>"Strasbourg":"France",</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>332</v>
+      </c>
+      <c r="C158" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" t="s">
+        <v>332</v>
+      </c>
+      <c r="E158" t="s">
+        <v>334</v>
+      </c>
+      <c r="F158" t="s">
+        <v>332</v>
+      </c>
+      <c r="G158" t="s">
+        <v>338</v>
+      </c>
+      <c r="H158" t="s">
+        <v>332</v>
+      </c>
+      <c r="J158" t="str">
+        <f>_xlfn.CONCAT(B158:I158)</f>
+        <v>"Toulouse":"France"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67056614-51CB-42BC-A6A3-429B72651AA8}">
   <dimension ref="A7:B156"/>
   <sheetViews>
@@ -3452,7 +7862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3F855-EE3B-4F48-A949-A2CE0D5B6F90}">
   <dimension ref="A1:B129"/>
   <sheetViews>
@@ -4177,12 +8587,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1AC71B-1073-45EE-AF8C-38610C1FC56A}">
   <dimension ref="B1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G133" sqref="G1:G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
